--- a/ep/ep/export/flourish/Hungary_group_group.xlsx
+++ b/ep/ep/export/flourish/Hungary_group_group.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="31">
   <si>
     <t>name1</t>
   </si>
@@ -89,13 +89,31 @@
   </si>
   <si>
     <t>Verts/ALE</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/epp.jpg</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/S&amp;D.png</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/greens.png</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/independent.png</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/ecr.jpg</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/alde.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,6 +128,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -144,16 +169,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -521,6 +552,9 @@
       <c r="C2" t="s">
         <v>22</v>
       </c>
+      <c r="D2" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="E2">
         <v>0.736</v>
       </c>
@@ -550,6 +584,9 @@
       <c r="C3" t="s">
         <v>23</v>
       </c>
+      <c r="D3" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="E3">
         <v>0.778</v>
       </c>
@@ -579,6 +616,9 @@
       <c r="C4" t="s">
         <v>24</v>
       </c>
+      <c r="D4" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="I4">
         <v>0.59</v>
       </c>
@@ -596,6 +636,9 @@
       <c r="C5" t="s">
         <v>21</v>
       </c>
+      <c r="D5" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="J5">
         <v>0.525</v>
       </c>
@@ -625,6 +668,9 @@
       <c r="C6" t="s">
         <v>22</v>
       </c>
+      <c r="D6" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="J6">
         <v>0.641</v>
       </c>
@@ -654,6 +700,9 @@
       <c r="C7" t="s">
         <v>23</v>
       </c>
+      <c r="D7" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="J7">
         <v>0.62</v>
       </c>
@@ -683,6 +732,9 @@
       <c r="C8" t="s">
         <v>20</v>
       </c>
+      <c r="D8" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="J8">
         <v>0.525</v>
       </c>
@@ -712,6 +764,9 @@
       <c r="C9" t="s">
         <v>22</v>
       </c>
+      <c r="D9" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="J9">
         <v>0.491</v>
       </c>
@@ -756,6 +811,9 @@
       <c r="C10" t="s">
         <v>23</v>
       </c>
+      <c r="D10" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="J10">
         <v>0.414</v>
       </c>
@@ -800,6 +858,9 @@
       <c r="C11" t="s">
         <v>24</v>
       </c>
+      <c r="D11" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="O11">
         <v>0.581</v>
       </c>
@@ -829,6 +890,9 @@
       <c r="C12" t="s">
         <v>19</v>
       </c>
+      <c r="D12" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="E12">
         <v>0.736</v>
       </c>
@@ -858,6 +922,9 @@
       <c r="C13" t="s">
         <v>20</v>
       </c>
+      <c r="D13" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="J13">
         <v>0.641</v>
       </c>
@@ -887,6 +954,9 @@
       <c r="C14" t="s">
         <v>21</v>
       </c>
+      <c r="D14" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="J14">
         <v>0.491</v>
       </c>
@@ -931,6 +1001,9 @@
       <c r="C15" t="s">
         <v>23</v>
       </c>
+      <c r="D15" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="E15">
         <v>0.6</v>
       </c>
@@ -990,6 +1063,9 @@
       <c r="C16" t="s">
         <v>24</v>
       </c>
+      <c r="D16" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="I16">
         <v>0.871</v>
       </c>
@@ -1025,6 +1101,9 @@
       <c r="C17" t="s">
         <v>19</v>
       </c>
+      <c r="D17" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="E17">
         <v>0.778</v>
       </c>
@@ -1054,6 +1133,9 @@
       <c r="C18" t="s">
         <v>20</v>
       </c>
+      <c r="D18" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="J18">
         <v>0.62</v>
       </c>
@@ -1083,6 +1165,9 @@
       <c r="C19" t="s">
         <v>21</v>
       </c>
+      <c r="D19" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="J19">
         <v>0.414</v>
       </c>
@@ -1127,6 +1212,9 @@
       <c r="C20" t="s">
         <v>22</v>
       </c>
+      <c r="D20" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="E20">
         <v>0.6</v>
       </c>
@@ -1186,6 +1274,9 @@
       <c r="C21" t="s">
         <v>24</v>
       </c>
+      <c r="D21" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="I21">
         <v>0.829</v>
       </c>
@@ -1221,6 +1312,9 @@
       <c r="C22" t="s">
         <v>19</v>
       </c>
+      <c r="D22" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="I22">
         <v>0.59</v>
       </c>
@@ -1238,6 +1332,9 @@
       <c r="C23" t="s">
         <v>21</v>
       </c>
+      <c r="D23" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="O23">
         <v>0.581</v>
       </c>
@@ -1267,6 +1364,9 @@
       <c r="C24" t="s">
         <v>22</v>
       </c>
+      <c r="D24" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="I24">
         <v>0.871</v>
       </c>
@@ -1302,6 +1402,9 @@
       <c r="C25" t="s">
         <v>23</v>
       </c>
+      <c r="D25" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="I25">
         <v>0.829</v>
       </c>
@@ -1328,6 +1431,32 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="D6" r:id="rId5"/>
+    <hyperlink ref="D7" r:id="rId6"/>
+    <hyperlink ref="D8" r:id="rId7"/>
+    <hyperlink ref="D9" r:id="rId8"/>
+    <hyperlink ref="D10" r:id="rId9"/>
+    <hyperlink ref="D11" r:id="rId10"/>
+    <hyperlink ref="D12" r:id="rId11"/>
+    <hyperlink ref="D13" r:id="rId12"/>
+    <hyperlink ref="D14" r:id="rId13"/>
+    <hyperlink ref="D15" r:id="rId14"/>
+    <hyperlink ref="D16" r:id="rId15"/>
+    <hyperlink ref="D17" r:id="rId16"/>
+    <hyperlink ref="D18" r:id="rId17"/>
+    <hyperlink ref="D19" r:id="rId18"/>
+    <hyperlink ref="D20" r:id="rId19"/>
+    <hyperlink ref="D21" r:id="rId20"/>
+    <hyperlink ref="D22" r:id="rId21"/>
+    <hyperlink ref="D23" r:id="rId22"/>
+    <hyperlink ref="D24" r:id="rId23"/>
+    <hyperlink ref="D25" r:id="rId24"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ep/ep/export/flourish/Hungary_group_group.xlsx
+++ b/ep/ep/export/flourish/Hungary_group_group.xlsx
@@ -79,34 +79,34 @@
     <t>ECR</t>
   </si>
   <si>
+    <t>EPP</t>
+  </si>
+  <si>
+    <t>Greens</t>
+  </si>
+  <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>PPE</t>
-  </si>
-  <si>
     <t>S&amp;D</t>
   </si>
   <si>
-    <t>Verts/ALE</t>
-  </si>
-  <si>
     <t>https://szekelydata.csaladen.es/ep/ep/img/epp.jpg</t>
   </si>
   <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/greens.png</t>
+  </si>
+  <si>
     <t>https://szekelydata.csaladen.es/ep/ep/img/S&amp;D.png</t>
   </si>
   <si>
-    <t>https://szekelydata.csaladen.es/ep/ep/img/greens.png</t>
-  </si>
-  <si>
     <t>https://szekelydata.csaladen.es/ep/ep/img/independent.png</t>
   </si>
   <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/alde.jpg</t>
+  </si>
+  <si>
     <t>https://szekelydata.csaladen.es/ep/ep/img/ecr.jpg</t>
-  </si>
-  <si>
-    <t>https://szekelydata.csaladen.es/ep/ep/img/alde.jpg</t>
   </si>
 </sst>
 </file>
@@ -550,7 +550,7 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>25</v>
@@ -582,28 +582,16 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E3">
-        <v>0.778</v>
-      </c>
-      <c r="F3">
-        <v>0.6840000000000001</v>
-      </c>
-      <c r="G3">
-        <v>0.804</v>
-      </c>
-      <c r="H3">
-        <v>0.732</v>
-      </c>
       <c r="I3">
-        <v>0.747</v>
+        <v>0.59</v>
       </c>
       <c r="J3">
-        <v>0.765</v>
+        <v>0.821</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -619,11 +607,23 @@
       <c r="D4" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="E4">
+        <v>0.778</v>
+      </c>
+      <c r="F4">
+        <v>0.6840000000000001</v>
+      </c>
+      <c r="G4">
+        <v>0.804</v>
+      </c>
+      <c r="H4">
+        <v>0.732</v>
+      </c>
       <c r="I4">
-        <v>0.59</v>
+        <v>0.747</v>
       </c>
       <c r="J4">
-        <v>0.821</v>
+        <v>0.765</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -637,25 +637,25 @@
         <v>21</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J5">
-        <v>0.525</v>
+        <v>0.641</v>
       </c>
       <c r="K5">
-        <v>0.48</v>
+        <v>0.665</v>
       </c>
       <c r="L5">
-        <v>0.46</v>
+        <v>0.53</v>
       </c>
       <c r="M5">
-        <v>0.59</v>
+        <v>0.646</v>
       </c>
       <c r="N5">
-        <v>0.58</v>
+        <v>0.55</v>
       </c>
       <c r="O5">
-        <v>0.499</v>
+        <v>0.676</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -666,28 +666,28 @@
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J6">
-        <v>0.641</v>
+        <v>0.525</v>
       </c>
       <c r="K6">
-        <v>0.665</v>
+        <v>0.48</v>
       </c>
       <c r="L6">
-        <v>0.53</v>
+        <v>0.46</v>
       </c>
       <c r="M6">
-        <v>0.646</v>
+        <v>0.59</v>
       </c>
       <c r="N6">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="O6">
-        <v>0.676</v>
+        <v>0.499</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -698,10 +698,10 @@
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J7">
         <v>0.62</v>
@@ -730,28 +730,28 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="E8">
+        <v>0.736</v>
+      </c>
+      <c r="F8">
+        <v>0.694</v>
+      </c>
+      <c r="G8">
+        <v>0.8139999999999999</v>
+      </c>
+      <c r="H8">
+        <v>0.703</v>
+      </c>
+      <c r="I8">
+        <v>0.718</v>
+      </c>
       <c r="J8">
-        <v>0.525</v>
-      </c>
-      <c r="K8">
-        <v>0.48</v>
-      </c>
-      <c r="L8">
-        <v>0.46</v>
-      </c>
-      <c r="M8">
-        <v>0.59</v>
-      </c>
-      <c r="N8">
-        <v>0.58</v>
-      </c>
-      <c r="O8">
-        <v>0.499</v>
+        <v>0.723</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -762,43 +762,28 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J9">
-        <v>0.491</v>
+        <v>0.641</v>
       </c>
       <c r="K9">
-        <v>0.583</v>
+        <v>0.665</v>
       </c>
       <c r="L9">
-        <v>0.663</v>
+        <v>0.53</v>
       </c>
       <c r="M9">
-        <v>0.852</v>
+        <v>0.646</v>
       </c>
       <c r="N9">
-        <v>0.667</v>
+        <v>0.55</v>
       </c>
       <c r="O9">
-        <v>0.556</v>
-      </c>
-      <c r="P9">
-        <v>0.475</v>
-      </c>
-      <c r="Q9">
-        <v>0.468</v>
-      </c>
-      <c r="R9">
-        <v>0.468</v>
-      </c>
-      <c r="S9">
-        <v>0.485</v>
-      </c>
-      <c r="T9">
-        <v>0.525</v>
+        <v>0.676</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -809,43 +794,34 @@
         <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="I10">
+        <v>0.871</v>
+      </c>
       <c r="J10">
-        <v>0.414</v>
-      </c>
-      <c r="K10">
-        <v>0.59</v>
-      </c>
-      <c r="L10">
-        <v>0.676</v>
-      </c>
-      <c r="M10">
-        <v>0.762</v>
-      </c>
-      <c r="N10">
-        <v>0.644</v>
+        <v>0.961</v>
       </c>
       <c r="O10">
-        <v>0.625</v>
+        <v>0.573</v>
       </c>
       <c r="P10">
-        <v>0.522</v>
+        <v>0.532</v>
       </c>
       <c r="Q10">
-        <v>0.539</v>
+        <v>0.532</v>
       </c>
       <c r="R10">
-        <v>0.515</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="S10">
-        <v>0.478</v>
+        <v>0.506</v>
       </c>
       <c r="T10">
-        <v>0.641</v>
+        <v>0.442</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -856,28 +832,43 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="J11">
+        <v>0.491</v>
+      </c>
+      <c r="K11">
+        <v>0.583</v>
+      </c>
+      <c r="L11">
+        <v>0.663</v>
+      </c>
+      <c r="M11">
+        <v>0.852</v>
+      </c>
+      <c r="N11">
+        <v>0.667</v>
       </c>
       <c r="O11">
-        <v>0.581</v>
+        <v>0.556</v>
       </c>
       <c r="P11">
-        <v>0.622</v>
+        <v>0.475</v>
       </c>
       <c r="Q11">
-        <v>0.633</v>
+        <v>0.468</v>
       </c>
       <c r="R11">
-        <v>0.601</v>
+        <v>0.468</v>
       </c>
       <c r="S11">
-        <v>0.511</v>
+        <v>0.485</v>
       </c>
       <c r="T11">
-        <v>0.6879999999999999</v>
+        <v>0.525</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -885,31 +876,61 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E12">
-        <v>0.736</v>
+        <v>0.6</v>
       </c>
       <c r="F12">
-        <v>0.694</v>
+        <v>0.583</v>
       </c>
       <c r="G12">
-        <v>0.8139999999999999</v>
+        <v>0.747</v>
       </c>
       <c r="H12">
-        <v>0.703</v>
+        <v>0.611</v>
       </c>
       <c r="I12">
-        <v>0.718</v>
+        <v>0.761</v>
       </c>
       <c r="J12">
-        <v>0.723</v>
+        <v>0.745</v>
+      </c>
+      <c r="K12">
+        <v>0.722</v>
+      </c>
+      <c r="L12">
+        <v>0.796</v>
+      </c>
+      <c r="M12">
+        <v>0.819</v>
+      </c>
+      <c r="N12">
+        <v>0.766</v>
+      </c>
+      <c r="O12">
+        <v>0.771</v>
+      </c>
+      <c r="P12">
+        <v>0.746</v>
+      </c>
+      <c r="Q12">
+        <v>0.749</v>
+      </c>
+      <c r="R12">
+        <v>0.742</v>
+      </c>
+      <c r="S12">
+        <v>0.701</v>
+      </c>
+      <c r="T12">
+        <v>0.651</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -920,28 +941,16 @@
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="I13">
+        <v>0.59</v>
+      </c>
       <c r="J13">
-        <v>0.641</v>
-      </c>
-      <c r="K13">
-        <v>0.665</v>
-      </c>
-      <c r="L13">
-        <v>0.53</v>
-      </c>
-      <c r="M13">
-        <v>0.646</v>
-      </c>
-      <c r="N13">
-        <v>0.55</v>
-      </c>
-      <c r="O13">
-        <v>0.676</v>
+        <v>0.821</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -955,40 +964,31 @@
         <v>21</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
+      </c>
+      <c r="I14">
+        <v>0.871</v>
       </c>
       <c r="J14">
-        <v>0.491</v>
-      </c>
-      <c r="K14">
-        <v>0.583</v>
-      </c>
-      <c r="L14">
-        <v>0.663</v>
-      </c>
-      <c r="M14">
-        <v>0.852</v>
-      </c>
-      <c r="N14">
-        <v>0.667</v>
+        <v>0.961</v>
       </c>
       <c r="O14">
-        <v>0.556</v>
+        <v>0.573</v>
       </c>
       <c r="P14">
-        <v>0.475</v>
+        <v>0.532</v>
       </c>
       <c r="Q14">
-        <v>0.468</v>
+        <v>0.532</v>
       </c>
       <c r="R14">
-        <v>0.468</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="S14">
-        <v>0.485</v>
+        <v>0.506</v>
       </c>
       <c r="T14">
-        <v>0.525</v>
+        <v>0.442</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1002,55 +1002,25 @@
         <v>23</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15">
-        <v>0.6</v>
-      </c>
-      <c r="F15">
-        <v>0.583</v>
-      </c>
-      <c r="G15">
-        <v>0.747</v>
-      </c>
-      <c r="H15">
-        <v>0.611</v>
-      </c>
-      <c r="I15">
-        <v>0.761</v>
-      </c>
-      <c r="J15">
-        <v>0.745</v>
-      </c>
-      <c r="K15">
-        <v>0.722</v>
-      </c>
-      <c r="L15">
-        <v>0.796</v>
-      </c>
-      <c r="M15">
-        <v>0.819</v>
-      </c>
-      <c r="N15">
-        <v>0.766</v>
+        <v>28</v>
       </c>
       <c r="O15">
-        <v>0.771</v>
+        <v>0.581</v>
       </c>
       <c r="P15">
-        <v>0.746</v>
+        <v>0.622</v>
       </c>
       <c r="Q15">
-        <v>0.749</v>
+        <v>0.633</v>
       </c>
       <c r="R15">
-        <v>0.742</v>
+        <v>0.601</v>
       </c>
       <c r="S15">
-        <v>0.701</v>
+        <v>0.511</v>
       </c>
       <c r="T15">
-        <v>0.651</v>
+        <v>0.6879999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1067,28 +1037,28 @@
         <v>27</v>
       </c>
       <c r="I16">
-        <v>0.871</v>
+        <v>0.829</v>
       </c>
       <c r="J16">
-        <v>0.961</v>
+        <v>0.831</v>
       </c>
       <c r="O16">
-        <v>0.573</v>
+        <v>0.728</v>
       </c>
       <c r="P16">
-        <v>0.532</v>
+        <v>0.764</v>
       </c>
       <c r="Q16">
-        <v>0.532</v>
+        <v>0.751</v>
       </c>
       <c r="R16">
-        <v>0.5639999999999999</v>
+        <v>0.821</v>
       </c>
       <c r="S16">
-        <v>0.506</v>
+        <v>0.771</v>
       </c>
       <c r="T16">
-        <v>0.442</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1099,28 +1069,28 @@
         <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E17">
-        <v>0.778</v>
-      </c>
-      <c r="F17">
-        <v>0.6840000000000001</v>
-      </c>
-      <c r="G17">
-        <v>0.804</v>
-      </c>
-      <c r="H17">
-        <v>0.732</v>
-      </c>
-      <c r="I17">
-        <v>0.747</v>
-      </c>
       <c r="J17">
-        <v>0.765</v>
+        <v>0.525</v>
+      </c>
+      <c r="K17">
+        <v>0.48</v>
+      </c>
+      <c r="L17">
+        <v>0.46</v>
+      </c>
+      <c r="M17">
+        <v>0.59</v>
+      </c>
+      <c r="N17">
+        <v>0.58</v>
+      </c>
+      <c r="O17">
+        <v>0.499</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1131,28 +1101,43 @@
         <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J18">
-        <v>0.62</v>
+        <v>0.491</v>
       </c>
       <c r="K18">
-        <v>0.456</v>
+        <v>0.583</v>
       </c>
       <c r="L18">
-        <v>0.491</v>
+        <v>0.663</v>
       </c>
       <c r="M18">
-        <v>0.552</v>
+        <v>0.852</v>
       </c>
       <c r="N18">
-        <v>0.499</v>
+        <v>0.667</v>
       </c>
       <c r="O18">
-        <v>0.545</v>
+        <v>0.556</v>
+      </c>
+      <c r="P18">
+        <v>0.475</v>
+      </c>
+      <c r="Q18">
+        <v>0.468</v>
+      </c>
+      <c r="R18">
+        <v>0.468</v>
+      </c>
+      <c r="S18">
+        <v>0.485</v>
+      </c>
+      <c r="T18">
+        <v>0.525</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1163,43 +1148,28 @@
         <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J19">
-        <v>0.414</v>
-      </c>
-      <c r="K19">
-        <v>0.59</v>
-      </c>
-      <c r="L19">
-        <v>0.676</v>
-      </c>
-      <c r="M19">
-        <v>0.762</v>
-      </c>
-      <c r="N19">
-        <v>0.644</v>
+        <v>26</v>
       </c>
       <c r="O19">
-        <v>0.625</v>
+        <v>0.581</v>
       </c>
       <c r="P19">
-        <v>0.522</v>
+        <v>0.622</v>
       </c>
       <c r="Q19">
-        <v>0.539</v>
+        <v>0.633</v>
       </c>
       <c r="R19">
-        <v>0.515</v>
+        <v>0.601</v>
       </c>
       <c r="S19">
-        <v>0.478</v>
+        <v>0.511</v>
       </c>
       <c r="T19">
-        <v>0.641</v>
+        <v>0.6879999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1210,58 +1180,43 @@
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20">
-        <v>0.6</v>
-      </c>
-      <c r="F20">
-        <v>0.583</v>
-      </c>
-      <c r="G20">
-        <v>0.747</v>
-      </c>
-      <c r="H20">
-        <v>0.611</v>
-      </c>
-      <c r="I20">
-        <v>0.761</v>
+        <v>27</v>
       </c>
       <c r="J20">
-        <v>0.745</v>
+        <v>0.414</v>
       </c>
       <c r="K20">
-        <v>0.722</v>
+        <v>0.59</v>
       </c>
       <c r="L20">
-        <v>0.796</v>
+        <v>0.676</v>
       </c>
       <c r="M20">
-        <v>0.819</v>
+        <v>0.762</v>
       </c>
       <c r="N20">
-        <v>0.766</v>
+        <v>0.644</v>
       </c>
       <c r="O20">
-        <v>0.771</v>
+        <v>0.625</v>
       </c>
       <c r="P20">
-        <v>0.746</v>
+        <v>0.522</v>
       </c>
       <c r="Q20">
-        <v>0.749</v>
+        <v>0.539</v>
       </c>
       <c r="R20">
-        <v>0.742</v>
+        <v>0.515</v>
       </c>
       <c r="S20">
-        <v>0.701</v>
+        <v>0.478</v>
       </c>
       <c r="T20">
-        <v>0.651</v>
+        <v>0.641</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1269,37 +1224,31 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="E21">
+        <v>0.778</v>
+      </c>
+      <c r="F21">
+        <v>0.6840000000000001</v>
+      </c>
+      <c r="G21">
+        <v>0.804</v>
+      </c>
+      <c r="H21">
+        <v>0.732</v>
       </c>
       <c r="I21">
-        <v>0.829</v>
+        <v>0.747</v>
       </c>
       <c r="J21">
-        <v>0.831</v>
-      </c>
-      <c r="O21">
-        <v>0.728</v>
-      </c>
-      <c r="P21">
-        <v>0.764</v>
-      </c>
-      <c r="Q21">
-        <v>0.751</v>
-      </c>
-      <c r="R21">
-        <v>0.821</v>
-      </c>
-      <c r="S21">
-        <v>0.771</v>
-      </c>
-      <c r="T21">
-        <v>0.8</v>
+        <v>0.765</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1310,16 +1259,28 @@
         <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I22">
-        <v>0.59</v>
-      </c>
       <c r="J22">
-        <v>0.821</v>
+        <v>0.62</v>
+      </c>
+      <c r="K22">
+        <v>0.456</v>
+      </c>
+      <c r="L22">
+        <v>0.491</v>
+      </c>
+      <c r="M22">
+        <v>0.552</v>
+      </c>
+      <c r="N22">
+        <v>0.499</v>
+      </c>
+      <c r="O22">
+        <v>0.545</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1333,25 +1294,55 @@
         <v>21</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
+      </c>
+      <c r="E23">
+        <v>0.6</v>
+      </c>
+      <c r="F23">
+        <v>0.583</v>
+      </c>
+      <c r="G23">
+        <v>0.747</v>
+      </c>
+      <c r="H23">
+        <v>0.611</v>
+      </c>
+      <c r="I23">
+        <v>0.761</v>
+      </c>
+      <c r="J23">
+        <v>0.745</v>
+      </c>
+      <c r="K23">
+        <v>0.722</v>
+      </c>
+      <c r="L23">
+        <v>0.796</v>
+      </c>
+      <c r="M23">
+        <v>0.819</v>
+      </c>
+      <c r="N23">
+        <v>0.766</v>
       </c>
       <c r="O23">
-        <v>0.581</v>
+        <v>0.771</v>
       </c>
       <c r="P23">
-        <v>0.622</v>
+        <v>0.746</v>
       </c>
       <c r="Q23">
-        <v>0.633</v>
+        <v>0.749</v>
       </c>
       <c r="R23">
-        <v>0.601</v>
+        <v>0.742</v>
       </c>
       <c r="S23">
-        <v>0.511</v>
+        <v>0.701</v>
       </c>
       <c r="T23">
-        <v>0.6879999999999999</v>
+        <v>0.651</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1365,31 +1356,31 @@
         <v>22</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I24">
-        <v>0.871</v>
+        <v>0.829</v>
       </c>
       <c r="J24">
-        <v>0.961</v>
+        <v>0.831</v>
       </c>
       <c r="O24">
-        <v>0.573</v>
+        <v>0.728</v>
       </c>
       <c r="P24">
-        <v>0.532</v>
+        <v>0.764</v>
       </c>
       <c r="Q24">
-        <v>0.532</v>
+        <v>0.751</v>
       </c>
       <c r="R24">
-        <v>0.5639999999999999</v>
+        <v>0.821</v>
       </c>
       <c r="S24">
-        <v>0.506</v>
+        <v>0.771</v>
       </c>
       <c r="T24">
-        <v>0.442</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1403,31 +1394,40 @@
         <v>23</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I25">
-        <v>0.829</v>
+        <v>28</v>
       </c>
       <c r="J25">
-        <v>0.831</v>
+        <v>0.414</v>
+      </c>
+      <c r="K25">
+        <v>0.59</v>
+      </c>
+      <c r="L25">
+        <v>0.676</v>
+      </c>
+      <c r="M25">
+        <v>0.762</v>
+      </c>
+      <c r="N25">
+        <v>0.644</v>
       </c>
       <c r="O25">
-        <v>0.728</v>
+        <v>0.625</v>
       </c>
       <c r="P25">
-        <v>0.764</v>
+        <v>0.522</v>
       </c>
       <c r="Q25">
-        <v>0.751</v>
+        <v>0.539</v>
       </c>
       <c r="R25">
-        <v>0.821</v>
+        <v>0.515</v>
       </c>
       <c r="S25">
-        <v>0.771</v>
+        <v>0.478</v>
       </c>
       <c r="T25">
-        <v>0.8</v>
+        <v>0.641</v>
       </c>
     </row>
   </sheetData>
